--- a/el_price_rev-v2.xlsx
+++ b/el_price_rev-v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bikash/My Drive (bikash@vasudhaindia.org)/01-cooking/01-analysis-files/TEA-cook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667AE727-7214-2649-8768-0B0334A86A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D5796D-DF15-EF4E-9210-C2789E0ADA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,6 +169,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,13 +224,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,10 +236,10 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -591,7 +591,7 @@
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -608,11 +608,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="2">
         <v>2.1</v>
       </c>
       <c r="C2" s="2">
@@ -624,12 +624,20 @@
       <c r="E2" s="2">
         <v>6.625</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="6">
+        <f>MIN(B2:E37)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <f>MAX(B2:E37)</f>
+        <v>7.2374999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="2">
         <v>1.45</v>
       </c>
       <c r="C3" s="2">
@@ -642,11 +650,11 @@
         <v>7.2374999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="2">
         <v>2.65</v>
       </c>
       <c r="C4" s="2">
@@ -659,11 +667,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="2">
         <v>4.6500000000000004</v>
       </c>
       <c r="C5" s="2">
@@ -676,11 +684,11 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="2">
         <v>6.1</v>
       </c>
       <c r="C6" s="2">
@@ -693,11 +701,11 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2">
         <v>2.5</v>
       </c>
@@ -708,11 +716,11 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>3.6</v>
       </c>
@@ -723,11 +731,11 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2">
         <v>1.4</v>
       </c>
@@ -738,11 +746,11 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2">
         <v>1.4</v>
       </c>
@@ -753,11 +761,11 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="2">
         <v>3</v>
       </c>
@@ -768,11 +776,11 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2">
         <v>1.5</v>
       </c>
@@ -783,11 +791,11 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="2">
         <v>1.5</v>
       </c>
       <c r="C13" s="2">
@@ -800,11 +808,11 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2">
         <v>2</v>
       </c>
@@ -815,11 +823,11 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="2">
         <v>3.3</v>
       </c>
       <c r="C15" s="2">
@@ -832,11 +840,11 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="2">
         <v>1.25</v>
       </c>
       <c r="C16" s="2">
@@ -850,10 +858,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="2">
         <v>6</v>
       </c>
@@ -865,10 +873,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2">
         <v>4.01</v>
       </c>
@@ -880,10 +888,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="2">
         <v>1.5</v>
       </c>
       <c r="C19" s="2">
@@ -897,10 +905,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="2">
@@ -914,10 +922,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="2">
         <v>3.25</v>
       </c>
       <c r="C21" s="2">
@@ -931,10 +939,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="2">
         <v>1.06</v>
       </c>
       <c r="C22" s="2">
@@ -948,10 +956,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" s="2">
@@ -965,10 +973,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="2">
         <v>3.65</v>
       </c>
       <c r="C24" s="2">
@@ -982,10 +990,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="2">
         <v>2.5</v>
       </c>
       <c r="C25" s="2">
@@ -999,10 +1007,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="2">
         <v>4.5</v>
       </c>
@@ -1014,10 +1022,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="2">
         <v>3</v>
       </c>
@@ -1029,10 +1037,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28" s="2">
@@ -1046,10 +1054,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="2">
         <v>4.6399999999999997</v>
       </c>
@@ -1061,10 +1069,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="2">
         <v>3.5</v>
       </c>
       <c r="C30" s="2">
@@ -1078,10 +1086,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="2">
         <v>1</v>
       </c>
@@ -1093,10 +1101,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="2">
         <v>2.5</v>
       </c>
@@ -1108,10 +1116,10 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="2">
         <v>1.45</v>
       </c>
@@ -1123,10 +1131,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="2">
         <v>4.03</v>
       </c>
       <c r="C34" s="2">
@@ -1140,10 +1148,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="2">
         <v>3</v>
       </c>
       <c r="C35" s="2">
@@ -1157,10 +1165,10 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="2">
         <v>1.61</v>
       </c>
       <c r="C36" s="2">
@@ -1174,10 +1182,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="2">
         <v>3.63</v>
       </c>
       <c r="C37" s="2">
@@ -1223,514 +1231,514 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>2.1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2.5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>6.625</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f>MIN(B2:D37)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1.45</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>7.2374999999999998</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f>MAX(B2:D37)</f>
         <v>7.2374999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>2.65</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>4.25</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>6.15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>6.1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>6.25</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>6.7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>2.5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>2.5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>4.25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>3.6</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>3.6</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1.4</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1.75</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>2.35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>1.4</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>1.4</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>2.25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>3</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>3.75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>1.5</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>1.5</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>2.25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>1.5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>3.335</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>3.95</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>2.25</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>5.25</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>3.3</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>3.95</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>1.25</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>1.69</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>2.75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>6</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>4.01</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>4.7050000000000001</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>6.95</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>1.5</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>3.85</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>5.833333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>1.35</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>3.25</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>4.59</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>5.9833333333333334</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>1.06</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>2.67</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>6.38</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>4.2</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>5.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>3.65</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>3.7</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>4.2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>2.5</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>4.8</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>5.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>4.5</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>4.95</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>3.9</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>4.8</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>1</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>1.55</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>2.6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>4.6399999999999997</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>4.6399999999999997</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>6.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>3.5</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>5.625</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>7.166666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>1</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>1.5</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>2.5</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>3</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>1.45</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>3.3</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>6.666666666666667</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>4.03</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>5.41</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>6.16</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>3</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>3.35</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>4.7833333333333332</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>1.61</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>2.8</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>3.63</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>5.28</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>5.92</v>
       </c>
     </row>
